--- a/api_case_the_third.xlsx
+++ b/api_case_the_third.xlsx
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>provider_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>city</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +168,10 @@
   </si>
   <si>
     <t>{"recipient_name":"测试","recipient_phone":"13701230123","city":"上海","building":"古美路1515号","room":"A","buyer_name":"Laiye-T","buyer_phone":"13803210321","provider_id":12,"expected_time_id":"0","carts":[{"id":488,"quantity":5}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>providerId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +631,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -663,25 +663,25 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -696,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -714,16 +714,16 @@
     </row>
     <row r="3" spans="1:15" ht="40.5">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -741,13 +741,13 @@
     </row>
     <row r="4" spans="1:15" ht="40.5">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7">
         <v>12</v>
@@ -767,22 +767,22 @@
     </row>
     <row r="5" spans="1:15" ht="40.5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7">
         <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -797,13 +797,13 @@
     </row>
     <row r="6" spans="1:15" ht="175.5">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -811,7 +811,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -823,20 +823,20 @@
     </row>
     <row r="7" spans="1:15" ht="27">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="H7" s="1">
         <v>12</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="8" spans="1:15" ht="202.5">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -867,7 +867,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -879,13 +879,13 @@
     </row>
     <row r="9" spans="1:15" ht="27">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -905,13 +905,13 @@
     </row>
     <row r="10" spans="1:15" ht="27">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -931,13 +931,13 @@
     </row>
     <row r="11" spans="1:15" ht="189" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -945,7 +945,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>

--- a/api_case_the_third.xlsx
+++ b/api_case_the_third.xlsx
@@ -631,7 +631,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/api_case_the_third.xlsx
+++ b/api_case_the_third.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,10 +119,6 @@
   </si>
   <si>
     <t>http://apitest.lyancafe.com/third/v1/expectedtimes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古美路1515号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -631,7 +627,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -663,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -681,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -720,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>23</v>
@@ -782,7 +778,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -803,7 +799,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -811,7 +807,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -853,13 +849,13 @@
     </row>
     <row r="8" spans="1:15" ht="202.5">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -867,7 +863,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -931,13 +927,13 @@
     </row>
     <row r="11" spans="1:15" ht="189" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -945,7 +941,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
